--- a/medicine/Enfance/Tout_commence_mal_/Tout_commence_mal_.xlsx
+++ b/medicine/Enfance/Tout_commence_mal_/Tout_commence_mal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tout commence mal... (titre original : The Bad Beginning), titré Nés sous une mauvaise étoile au Québec, est le premier tome de la série Les désastreuses aventures des orphelins Baudelaire de Lemony Snicket.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que les trois enfants de la famille Baudelaire, Violette, Klaus et Prunille (Violet, Klaus et Sunny en version originale) passent l'après-midi à la plage de Malamer, M. Poe, le banquier de la famille, vient leur annoncer une terrible nouvelle : leurs parents ont péri dans un terrible incendie ayant entièrement ravagé le Palais Baudelaire.  
 À la suite de cette tragédie, M. Poe accueille les enfants chez lui pour quelques jours le temps de leur trouver un nouveau foyer. Les enfants ont en effet hérité d'une immense fortune de la part de leurs parents, mais ne pourront l'utiliser que lorsque Violette, l'aînée de la famille, aura atteint la majorité. D'ici là, ceux-ci doivent être confiés à un tuteur. M. Poe les place donc chez le comte Olaf, un acteur de théâtre, qui est leur plus proche parent géographiquement (habitant dans la même ville) et donc, selon lui, le plus à même de s'occuper d'eux. 
@@ -547,7 +561,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2004, le roman est adapté au cinéma dans le long-métrage Les désastreuses aventures des orphelins Baudelaire de Brad Silberling, aux côtés du deuxième et troisième tomes. 
 En 2017, la série télévisée Les désastreuses aventures des orphelins Baudelaire adapte également le roman dans les deux premiers épisodes de la première saison.
